--- a/biology/Botanique/Rhipidoglossum_polyanthum/Rhipidoglossum_polyanthum.xlsx
+++ b/biology/Botanique/Rhipidoglossum_polyanthum/Rhipidoglossum_polyanthum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhipidoclossum polyanthum (Kraenzl.) Szlach. &amp; Olszewski est une espèce d'Orchidées du genre Rhipidoglossum, présente sur la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhipidoclossum polyanthum (Kraenzl.) Szlach. &amp; Olszewski est une plante érigée avec des tiges courtes de 5 à 16 cm de long dont les feuilles au minimum de 3 poussent près de l'apex et ont une base tordue. Les inflorescences sont verticales et émergent sous les feuilles. Elles portent au minimum 4 fleurs d'un blanc verdâtre et mesurent entre 2 et 20 cm de long[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhipidoclossum polyanthum (Kraenzl.) Szlach. &amp; Olszewski est une plante érigée avec des tiges courtes de 5 à 16 cm de long dont les feuilles au minimum de 3 poussent près de l'apex et ont une base tordue. Les inflorescences sont verticales et émergent sous les feuilles. Elles portent au minimum 4 fleurs d'un blanc verdâtre et mesurent entre 2 et 20 cm de long. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhipidoclossum polyanthum est une plante épiphyte qui pousse dans les forêts de montagnes à 10 m de haut[2]. C'est une plante subendémique du Cameroun, commune, observée dans trois régions (Nord-Ouest, Ouest et Sud-Ouest), également présente en Guinée équatoriale sur l'île de Bioko[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhipidoclossum polyanthum est une plante épiphyte qui pousse dans les forêts de montagnes à 10 m de haut. C'est une plante subendémique du Cameroun, commune, observée dans trois régions (Nord-Ouest, Ouest et Sud-Ouest), également présente en Guinée équatoriale sur l'île de Bioko.
 </t>
         </is>
       </c>
@@ -575,10 +591,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes homotypiques
-Rhipidoclossum polyanthum possède 3 synonymes homotypiques : Mystacidium polyanthum, Diaphanante polyantha et Sarcorhynchus polyanthus[4].
-Synonymes hétérotypiques
-Rhipidoclossum polyanthum possède 1 synonyme hétérotypique : Sarcorhynchus saccolabioide[4].
+          <t>Synonymes homotypiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhipidoclossum polyanthum possède 3 synonymes homotypiques : Mystacidium polyanthum, Diaphanante polyantha et Sarcorhynchus polyanthus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rhipidoglossum_polyanthum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhipidoglossum_polyanthum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes hétérotypiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhipidoclossum polyanthum possède 1 synonyme hétérotypique : Sarcorhynchus saccolabioide.
 </t>
         </is>
       </c>
